--- a/CleanResults/CompareWithOriginalAndRandomGraphs/Result.xlsx
+++ b/CleanResults/CompareWithOriginalAndRandomGraphs/Result.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Betweenness Attack</t>
   </si>
@@ -47,11 +47,14 @@
   <si>
     <t>Vulnerability</t>
   </si>
+  <si>
+    <t>LCC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -140,11 +143,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -152,9 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -162,6 +230,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,70 +558,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="10" width="10.81640625" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="9" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -573,8 +675,26 @@
       <c r="M3" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="N3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -597,25 +717,43 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
         <v>0.21671318244045501</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>0.20009077006046699</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>0.24462734852128801</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>0</v>
       </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <v>90</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -641,28 +779,46 @@
         <v>0.12063764536036581</v>
       </c>
       <c r="H5">
+        <v>55</v>
+      </c>
+      <c r="I5">
+        <v>86</v>
+      </c>
+      <c r="J5">
+        <v>96</v>
+      </c>
+      <c r="K5">
         <v>9.5053952220618895E-2</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>0.174271022467992</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>0.20354707974404901</v>
       </c>
-      <c r="K5">
-        <f>1-(H5/H4)</f>
+      <c r="N5">
+        <f>1-(K5/K4)</f>
         <v>0.56138361704537143</v>
       </c>
-      <c r="L5">
-        <f>1-(I5/I4)</f>
+      <c r="O5">
+        <f>1-(L5/L4)</f>
         <v>0.12904017304082704</v>
       </c>
-      <c r="M5">
-        <f t="shared" ref="M5" si="0">1-(J5/J4)</f>
+      <c r="P5">
+        <f t="shared" ref="P5" si="0">1-(M5/M4)</f>
         <v>0.16792999239683992</v>
       </c>
+      <c r="Q5">
+        <v>55</v>
+      </c>
+      <c r="R5">
+        <v>86</v>
+      </c>
+      <c r="S5">
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -688,28 +844,46 @@
         <v>0.19865539688371425</v>
       </c>
       <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>85</v>
+      </c>
+      <c r="J6">
+        <v>93</v>
+      </c>
+      <c r="K6">
         <v>6.3361712361712397E-2</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>0.158392628019633</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>0.174259040622677</v>
       </c>
-      <c r="K6">
-        <f>1-(H6/H4)</f>
+      <c r="N6">
+        <f>1-(K6/K4)</f>
         <v>0.70762409721373587</v>
       </c>
-      <c r="L6">
-        <f t="shared" ref="L6:M6" si="1">1-(I6/I4)</f>
+      <c r="O6">
+        <f t="shared" ref="O6:P6" si="1">1-(L6/L4)</f>
         <v>0.20839612955776476</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <f t="shared" si="1"/>
         <v>0.28765511429515167</v>
       </c>
+      <c r="Q6">
+        <v>40</v>
+      </c>
+      <c r="R6">
+        <v>85</v>
+      </c>
+      <c r="S6">
+        <v>89</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -735,28 +909,46 @@
         <v>0.33879635087772064</v>
       </c>
       <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>84</v>
+      </c>
+      <c r="J7">
+        <v>87</v>
+      </c>
+      <c r="K7">
         <v>4.24805194805195E-2</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>0.14589766422921499</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>0.15339924497500301</v>
       </c>
-      <c r="K7">
-        <f>1-(H7/H4)</f>
+      <c r="N7">
+        <f>1-(K7/K4)</f>
         <v>0.80397814751213104</v>
       </c>
-      <c r="L7">
-        <f t="shared" ref="L7:M7" si="2">1-(I7/I4)</f>
+      <c r="O7">
+        <f t="shared" ref="O7:P7" si="2">1-(L7/L4)</f>
         <v>0.27084260715711661</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <f t="shared" si="2"/>
         <v>0.37292683789337688</v>
       </c>
+      <c r="Q7">
+        <v>26</v>
+      </c>
+      <c r="R7">
+        <v>84</v>
+      </c>
+      <c r="S7">
+        <v>84</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -782,28 +974,46 @@
         <v>0.37864788538517646</v>
       </c>
       <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>51</v>
+      </c>
+      <c r="J8">
+        <v>84</v>
+      </c>
+      <c r="K8">
         <v>2.68643578643579E-2</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>9.5342814873117895E-2</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>0.125662782223388</v>
       </c>
-      <c r="K8">
-        <f>1-(H8/H4)</f>
+      <c r="N8">
+        <f>1-(K8/K4)</f>
         <v>0.87603726934452053</v>
       </c>
-      <c r="L8">
-        <f>1-(I8/I4)</f>
+      <c r="O8">
+        <f>1-(L8/L4)</f>
         <v>0.52350218431212237</v>
       </c>
-      <c r="M8">
-        <f t="shared" ref="M8" si="3">1-(J8/J4)</f>
+      <c r="P8">
+        <f t="shared" ref="P8" si="3">1-(M8/M4)</f>
         <v>0.48630934773651213</v>
       </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+      <c r="R8">
+        <v>51</v>
+      </c>
+      <c r="S8">
+        <v>75</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -829,28 +1039,46 @@
         <v>0.37864788538517646</v>
       </c>
       <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>84</v>
+      </c>
+      <c r="K9">
         <v>2.32111592111592E-2</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>8.6359146465207107E-2</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>0.113622859183465</v>
       </c>
-      <c r="K9">
-        <f>1-(H9/H4)</f>
+      <c r="N9">
+        <f>1-(K9/K4)</f>
         <v>0.8928945671427404</v>
       </c>
-      <c r="L9">
-        <f t="shared" ref="L9:M9" si="4">1-(I9/I4)</f>
+      <c r="O9">
+        <f t="shared" ref="O9:P9" si="4">1-(L9/L4)</f>
         <v>0.56840014939664851</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <f t="shared" si="4"/>
         <v>0.53552675172957087</v>
       </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+      <c r="R9">
+        <v>49</v>
+      </c>
+      <c r="S9">
+        <v>71</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -876,28 +1104,46 @@
         <v>0.45144008958632986</v>
       </c>
       <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>77</v>
+      </c>
+      <c r="K10">
         <v>2.0786916786916802E-2</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>7.57796115220358E-2</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>0.10493311906948299</v>
       </c>
-      <c r="K10">
-        <f>1-(H10/H4)</f>
+      <c r="N10">
+        <f>1-(K10/K4)</f>
         <v>0.90408097674155885</v>
       </c>
-      <c r="L10">
-        <f t="shared" ref="L10:M10" si="5">1-(I10/I4)</f>
+      <c r="O10">
+        <f t="shared" ref="O10:P10" si="5">1-(L10/L4)</f>
         <v>0.62127382737776782</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <f t="shared" si="5"/>
         <v>0.57104910917042662</v>
       </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>44</v>
+      </c>
+      <c r="S10">
+        <v>68</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -923,28 +1169,46 @@
         <v>0.46750834617000636</v>
       </c>
       <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>76</v>
+      </c>
+      <c r="K11">
         <v>1.96421356421356E-2</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>6.9707044358559497E-2</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>9.9119608786275404E-2</v>
       </c>
-      <c r="K11">
-        <f>1-(H11/H4)</f>
+      <c r="N11">
+        <f>1-(K11/K4)</f>
         <v>0.90936344794100121</v>
       </c>
-      <c r="L11">
-        <f t="shared" ref="L11:M11" si="6">1-(I11/I4)</f>
+      <c r="O11">
+        <f t="shared" ref="O11:P11" si="6">1-(L11/L4)</f>
         <v>0.6516228892642365</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <f t="shared" si="6"/>
         <v>0.59481386940001191</v>
       </c>
+      <c r="Q11">
+        <v>15</v>
+      </c>
+      <c r="R11">
+        <v>41</v>
+      </c>
+      <c r="S11">
+        <v>65</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -970,28 +1234,46 @@
         <v>0.51120720285366072</v>
       </c>
       <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>73</v>
+      </c>
+      <c r="K12">
         <v>1.52356902356902E-2</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>6.6497473906564797E-2</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>9.0429212762546105E-2</v>
       </c>
-      <c r="K12">
-        <f>1-(H12/H4)</f>
+      <c r="N12">
+        <f>1-(K12/K4)</f>
         <v>0.92969652300742522</v>
       </c>
-      <c r="L12">
-        <f t="shared" ref="L12:M12" si="7">1-(I12/I4)</f>
+      <c r="O12">
+        <f t="shared" ref="O12:P12" si="7">1-(L12/L4)</f>
         <v>0.6676634615056487</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <f t="shared" si="7"/>
         <v>0.63033890810177851</v>
       </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>41</v>
+      </c>
+      <c r="S12">
+        <v>62</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1017,28 +1299,46 @@
         <v>0.51201662208747567</v>
       </c>
       <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>73</v>
+      </c>
+      <c r="K13">
         <v>1.42255892255892E-2</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>5.1314581602460399E-2</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>8.9419111752445102E-2</v>
       </c>
-      <c r="K13">
-        <f>1-(H13/H4)</f>
+      <c r="N13">
+        <f>1-(K13/K4)</f>
         <v>0.93435752700693286</v>
       </c>
-      <c r="L13">
-        <f t="shared" ref="L13:M13" si="8">1-(I13/I4)</f>
+      <c r="O13">
+        <f t="shared" ref="O13:P13" si="8">1-(L13/L4)</f>
         <v>0.74354348485463251</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <f t="shared" si="8"/>
         <v>0.63446804990136396</v>
       </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>29</v>
+      </c>
+      <c r="S13">
+        <v>62</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1064,35 +1364,55 @@
         <v>0.51201662208747567</v>
       </c>
       <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>73</v>
+      </c>
+      <c r="K14">
         <v>1.3316498316498299E-2</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>5.0809531097409898E-2</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>8.8510020843354201E-2</v>
       </c>
-      <c r="K14">
-        <f>1-(H14/H4)</f>
+      <c r="N14">
+        <f>1-(K14/K4)</f>
         <v>0.93855243060648974</v>
       </c>
-      <c r="L14">
-        <f t="shared" ref="L14:M14" si="9">1-(I14/I4)</f>
+      <c r="O14">
+        <f t="shared" ref="O14:P14" si="9">1-(L14/L4)</f>
         <v>0.74606759181317872</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <f t="shared" si="9"/>
         <v>0.63818427752099083</v>
       </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>29</v>
+      </c>
+      <c r="S14">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="8">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
